--- a/ASSESSMENT.xlsx
+++ b/ASSESSMENT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenario" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="292">
   <si>
     <t>Test Scenario id</t>
   </si>
@@ -114,37 +114,13 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>1)to open the play store 
-2)to search the application
-3)to download and install the app
-4)to click send OTP
-5)to click continue button
-6)to configure the application with proper details</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
-    <t>verify to configure the application with white space</t>
-  </si>
-  <si>
     <t>neha</t>
   </si>
   <si>
-    <t>date of birth:
-Anniversary:</t>
-  </si>
-  <si>
-    <t>functionlity</t>
-  </si>
-  <si>
     <t>low</t>
-  </si>
-  <si>
-    <t>not add the date of birth and anniversary then display validation message</t>
-  </si>
-  <si>
-    <t>not add the date of birth and anniversary then next page open</t>
   </si>
   <si>
     <t>verify to click on that pizza image link</t>
@@ -448,9 +424,6 @@
     <t>veriify the select the city near you</t>
   </si>
   <si>
-    <t>verify to check ll links in the footer section</t>
-  </si>
-  <si>
     <t>1)to open the website https:lapinozpizza.in/
 2)press enter</t>
   </si>
@@ -590,12 +563,732 @@
   <si>
     <t>to open the page where customer an ealily contact with the company</t>
   </si>
+  <si>
+    <t>verify to click on he user dashboard icon</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon</t>
+  </si>
+  <si>
+    <t>to open the user dashboard s well</t>
+  </si>
+  <si>
+    <t>verify to click on user profile picture and user name</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon
+6)click on user profile picture or user name</t>
+  </si>
+  <si>
+    <t>to open he user profile picture pae to change the picture</t>
+  </si>
+  <si>
+    <t>as not per expected result,there is no any response while click</t>
+  </si>
+  <si>
+    <t>to open the page of pesonal information ,to update or view of personal information</t>
+  </si>
+  <si>
+    <t>verify to click on "update" button</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon
+6)click on user profile picture or user name
+7)click on update button</t>
+  </si>
+  <si>
+    <t>name:neha kachot
+email:neha1@gmail.com</t>
+  </si>
+  <si>
+    <t>to updae the personal details successfully</t>
+  </si>
+  <si>
+    <t>as not per expected result,there is no any response while click on hat button</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon
+6)click on my orders</t>
+  </si>
+  <si>
+    <t>to open the page of my current or previous order</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon
+6)click on manage addresses link</t>
+  </si>
+  <si>
+    <t>to open the page of managing addresses</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon
+6)click on Lp coins link</t>
+  </si>
+  <si>
+    <t>to open the page of reward page like Lp coind</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "dashboard"icon
+6)click on logout</t>
+  </si>
+  <si>
+    <t>to logout acces</t>
+  </si>
+  <si>
+    <t>verify to check select city or favourite oulet in search bar</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"</t>
+  </si>
+  <si>
+    <t>select your city:Ahemdabad
+select your favourite outlet:paldi</t>
+  </si>
+  <si>
+    <t>to select anyone city of among more option of city also choose favourite outlet</t>
+  </si>
+  <si>
+    <t>verify to check that all pizza's in categories"</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "ppizzaa's"in cateories</t>
+  </si>
+  <si>
+    <t>to open the categories of pizza in the available in the selected city</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "ppizzaa's"in cateories
+8)click on margherita pizza</t>
+  </si>
+  <si>
+    <t>to open the page of mentioned text ofpizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "ppizzaa's"in cateories
+8)click on pizza imae</t>
+  </si>
+  <si>
+    <t>to open the page of displayed image of pizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "Ad" button</t>
+  </si>
+  <si>
+    <t>to ass any other items wih seleced pizza option</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "Ad" button
+9)click on all functionality</t>
+  </si>
+  <si>
+    <t>to work properly all functionality as well</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "Ad" button
+9)click on "add to cart" button</t>
+  </si>
+  <si>
+    <t>to add to cart the selected pizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "search bar"</t>
+  </si>
+  <si>
+    <t>search:double chessee pizza</t>
+  </si>
+  <si>
+    <t>to open the page of searched pizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "call"icon</t>
+  </si>
+  <si>
+    <t>to open the page to call to the cenre of pizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "information"icon</t>
+  </si>
+  <si>
+    <t>to open the informaon page of releed pizzas cenre</t>
+  </si>
+  <si>
+    <t>verify to click on offer section or use promo code</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "usecode"link</t>
+  </si>
+  <si>
+    <t>to apply the offer code</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on blank field across the search bar</t>
+  </si>
+  <si>
+    <t>while click on the blank field,nothing want to be happen</t>
+  </si>
+  <si>
+    <t>not as per expeced result,while click on that blank feld,the search bar of pizza is open autometically</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on pure-veg beside of the search bar</t>
+  </si>
+  <si>
+    <t>to open the veg or non-veg promt page, to select eaily anyone of them</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on spring fling pizza</t>
+  </si>
+  <si>
+    <t>to open the page of relerte pizza image,with ame price of pizza bfore the page open and afer the page open</t>
+  </si>
+  <si>
+    <t>on he feaue page the price of pizza is minimum and no any term and condition icon,but when we click on that pizza,the price of hat pizza is to high</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "delivery"buton</t>
+  </si>
+  <si>
+    <t>verify to click on the your cart section"Delivery"button</t>
+  </si>
+  <si>
+    <t>to select the delivery option, delier the pizza at door step</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "pickup"buton</t>
+  </si>
+  <si>
+    <t>to select the pickup option, to pickup the pizza from pizza store</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "Dine-in"button</t>
+  </si>
+  <si>
+    <t>to elect Dine-in option to walk into the pizza centre</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "in car"button</t>
+  </si>
+  <si>
+    <t>to select the delivery option of in car, to deliver the pizza in car</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+8)click on "plus-minus"button</t>
+  </si>
+  <si>
+    <t>to successfully increase or decrease the quanity of pizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizzaa's"in cateories
+---------------------------------------------------------------check in your cart</t>
+  </si>
+  <si>
+    <t>to access the checkout functionality,with a same amount of subtoal or checkout amount  o show the term and condition symbol and show the proper staement of amount where is the increase</t>
+  </si>
+  <si>
+    <t>not as per expected result the amoount of chekout and subtotal is too different so he customer no unerstand which service is applied</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button</t>
+  </si>
+  <si>
+    <t>to checkout the order succesfully with valid amount visibility</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button
+9)click on select delivery address</t>
+  </si>
+  <si>
+    <t>to open the page of saved addresses,to select that address esalily</t>
+  </si>
+  <si>
+    <t>verify to click that select delivery address</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button
+9)click on select delivery address
+10)click on add new address
+11)click on select delivery area manually</t>
+  </si>
+  <si>
+    <t>to open the page to where user filled he address manually</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button
+9)click on apply coupon</t>
+  </si>
+  <si>
+    <t>to apply coupon successfully</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button
+9)click on apply coupon
+10)click on pay securely</t>
+  </si>
+  <si>
+    <t>to complete order process of pizza by completing pay securely</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button
+9)click on apply coupon
+10)click on pay securely
+11)click on cash on deliery</t>
+  </si>
+  <si>
+    <t>to successfully complete the order by clicking or choosing payment method of pay using cash</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on select your city
+6)click on select your "favourite outlet"
+7)click on "pizza's"in cateories
+8)click on "checkout"button
+9)click on apply coupon
+10)click on pay securely
+11)click on cash on delivery
+12)click on confirm order</t>
+  </si>
+  <si>
+    <t>to final process of complete the order of pizza by clicking confirm button</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on "download  now"</t>
+  </si>
+  <si>
+    <t>to open the page,where we download the application</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on image link of pizza</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on image link advertisement panel</t>
+  </si>
+  <si>
+    <t>to open the page of releted pizza and its offer</t>
+  </si>
+  <si>
+    <t>to open the page of releted image and is details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to open the page of releted pizza image </t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on pizza in explore</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on pizza in best sellers</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on stores in tha section</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on the image link</t>
+  </si>
+  <si>
+    <t>to open the page of relete sore,to check the available product</t>
+  </si>
+  <si>
+    <t>to open the page to enquiry about franchise</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on the city button</t>
+  </si>
+  <si>
+    <t>to open the page of that available produc in the selected city</t>
+  </si>
+  <si>
+    <t>verify to check all links in the footer section</t>
+  </si>
+  <si>
+    <t>1)to open the website https:lapinozpizza.in/
+2)press enter
+3)press login icon
+4)click to verify and login
+5)click on the footer section</t>
+  </si>
+  <si>
+    <t>to click on the all link its open</t>
+  </si>
+  <si>
+    <t>1)open he website:https://lapinozpizza.in/
+2)press enter
+3)click on "log in icon"
+4)click to verify and log in
+5)click on "user dashboard"icon
+6)click on user profile picure or user name</t>
+  </si>
+  <si>
+    <t>functionlity
+GUI</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>to open the user profile picture page to change the picture</t>
+  </si>
+  <si>
+    <t>as not per expected result, there is no any response while click</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>verify to click on updae button</t>
+  </si>
+  <si>
+    <t>1)open he website:https://lapinozpizza.in/
+2)press enter
+3)click on "log in icon"
+4)click to verify and log in
+5)click on "user dashboard"icon
+6)click on user profile picure or user name
+7)click on update button</t>
+  </si>
+  <si>
+    <t>Name:neha
+Email:neha1@gmai.com</t>
+  </si>
+  <si>
+    <t>to update te personal details successfully</t>
+  </si>
+  <si>
+    <t>as not per expected result, there is no any response while click on tat button</t>
+  </si>
+  <si>
+    <t>verify to click on the other blank section field acros the search bar</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>while click on the blank field, noing want to be happen</t>
+  </si>
+  <si>
+    <t>not as per expected result,while click on that blank field,the search bar of pizza is open automaically</t>
+  </si>
+  <si>
+    <t>verify to click on pure-veg beside of search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)open he website:https://lapinozpizza.in/
+2)press enter
+3)click on "log in icon"
+4)click to verify and log in
+5)click on "select your city"
+6)click on "select your favourite outlet"
+7)click on "pizza"in categories"
+8)click on blank field across the search bar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)open he website:https://lapinozpizza.in/
+2)press enter
+3)click on "log in icon"
+4)click to verify and log in
+5)click on "select your city"
+6)click on "select your favourite outlet"
+7)click on "pizza"in categories"
+8)click on pure-veg beside of the search bar
+</t>
+  </si>
+  <si>
+    <t>to open he veg or non-veg promt page,to select easily anyone of them</t>
+  </si>
+  <si>
+    <t>as not as per expected result,no any promt page open or not a clickable function</t>
+  </si>
+  <si>
+    <t>verify to click on feature iem selected pizza price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)open he website:https://lapinozpizza.in/
+2)press enter
+3)click on "log in icon"
+4)click to verify and log in
+5)click on "select your city"
+6)click on "select your favourite outlet"
+7)click on "pizza"in categories"
+8)click on spring fling pizza
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functionlity
+</t>
+  </si>
+  <si>
+    <t>to open the page o relete pizza image, wih same price of pizza before the page open and after the page open</t>
+  </si>
+  <si>
+    <t>on the feaure page he price of pizza is minimum and no any term and condition icon, but when we click on that pizza, the price of that pzza is to high</t>
+  </si>
+  <si>
+    <t>verify to check the value of total amount/subtoal or checkout amount different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)open he website:https://lapinozpizza.in/
+2)press enter
+3)click on "log in icon"
+4)click to verify and log in
+5)click on "select your city"
+6)click on "select your favourite outlet"
+7)click on "pizza"in categories"
+-------------------------------------------------------check in your cart
+</t>
+  </si>
+  <si>
+    <t>to access the checkout functionality, with a same amount of subtotal or checkout amount,or show the term and condition symbol and show the proper statement of amount where is the increase</t>
+  </si>
+  <si>
+    <t>not as per expeced result the amount of checkout and subtotal is too different, so the customer not understand,which serice is applied</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +1345,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -667,7 +1367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -712,11 +1412,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -741,16 +1454,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -1060,10 +1779,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.75">
-      <c r="A1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="42">
       <c r="A2" s="2" t="s">
@@ -1082,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1090,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1098,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1106,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1114,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1122,7 +1841,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1130,15 +1849,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>54</v>
+      <c r="B11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1146,7 +1865,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1154,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1162,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1170,63 +1889,63 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
-        <v>59</v>
+      <c r="A16" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>69</v>
+      <c r="A19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1234,226 +1953,226 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>108</v>
+      <c r="A38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>109</v>
+      <c r="A39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>110</v>
+        <v>93</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1461,7 +2180,7 @@
         <v>14</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1469,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1477,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1485,7 +2204,7 @@
         <v>17</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1493,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1501,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1509,35 +2228,31 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>132</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="9">
-        <v>56</v>
-      </c>
+      <c r="A60" s="9"/>
       <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="9">
-        <v>57</v>
-      </c>
+      <c r="A61" s="9"/>
       <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2">
@@ -1596,16 +2311,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
@@ -1684,22 +2399,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -1724,19 +2439,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>11</v>
@@ -1764,19 +2479,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>11</v>
@@ -1804,19 +2519,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
@@ -1844,19 +2559,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
@@ -1884,19 +2599,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
@@ -1924,19 +2639,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>11</v>
@@ -1964,19 +2679,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -2004,19 +2719,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>11</v>
@@ -2044,19 +2759,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>11</v>
@@ -2084,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
@@ -2117,26 +2832,26 @@
       <c r="T13" s="4"/>
     </row>
     <row r="14" spans="1:20" ht="90">
-      <c r="A14" s="12">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="10">
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
@@ -2144,8 +2859,8 @@
       <c r="I14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -2164,19 +2879,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
@@ -2204,19 +2919,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
@@ -2236,20 +2951,34 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" ht="90">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>12</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2262,16 +2991,34 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+    <row r="18" spans="1:20" ht="120">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2284,16 +3031,34 @@
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+    <row r="19" spans="1:20" ht="120">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -2306,16 +3071,34 @@
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+    <row r="20" spans="1:20" ht="135">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2328,16 +3111,34 @@
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+    <row r="21" spans="1:20" ht="105">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -2350,16 +3151,34 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
     </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+    <row r="22" spans="1:20" ht="105">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2372,16 +3191,34 @@
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
     </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+    <row r="23" spans="1:20" ht="105">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2394,16 +3231,34 @@
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
     </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+    <row r="24" spans="1:20" ht="105">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -2416,16 +3271,34 @@
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+    <row r="25" spans="1:20" ht="120">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -2438,16 +3311,34 @@
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
     </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+    <row r="26" spans="1:20" ht="135">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
@@ -2460,16 +3351,34 @@
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+    <row r="27" spans="1:20" ht="150">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -2482,16 +3391,34 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+    <row r="28" spans="1:20" ht="150">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -2504,16 +3431,34 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+    <row r="29" spans="1:20" ht="150">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -2526,16 +3471,34 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+    <row r="30" spans="1:20" ht="165">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
@@ -2548,16 +3511,34 @@
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+    <row r="31" spans="1:20" ht="165">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
@@ -2570,16 +3551,34 @@
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+    <row r="32" spans="1:20" ht="150">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2592,16 +3591,34 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+    <row r="33" spans="1:20" ht="150">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2614,16 +3631,34 @@
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+    <row r="34" spans="1:20" ht="150">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
@@ -2636,16 +3671,34 @@
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+    <row r="35" spans="1:20" ht="150">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2658,16 +3711,34 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+    <row r="36" spans="1:20" ht="150">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -2680,16 +3751,34 @@
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
     </row>
-    <row r="37" spans="1:20" ht="15.75">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+    <row r="37" spans="1:20" ht="165">
+      <c r="A37" s="14">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2702,16 +3791,34 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="1:20" ht="15.75">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+    <row r="38" spans="1:20" ht="165">
+      <c r="A38" s="14">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2724,16 +3831,34 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="1:20" ht="15.75">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+    <row r="39" spans="1:20" ht="150">
+      <c r="A39" s="14">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2746,16 +3871,34 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="1:20" ht="15.75">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+    <row r="40" spans="1:20" ht="150">
+      <c r="A40" s="10">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2768,16 +3911,34 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="1:20" ht="15.75">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+    <row r="41" spans="1:20" ht="150">
+      <c r="A41" s="10">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -2790,16 +3951,34 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="1:20" ht="15.75">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+    <row r="42" spans="1:20" ht="150">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -2812,16 +3991,34 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="1:20" ht="15.75">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+    <row r="43" spans="1:20" ht="150">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -2834,20 +4031,38 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="1:20" ht="15.75">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+    <row r="44" spans="1:20" ht="150">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="M44" s="15"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
@@ -2855,6 +4070,771 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="1:20" ht="165">
+      <c r="A45" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:20" ht="150">
+      <c r="A46" s="9">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:20" ht="165">
+      <c r="A47" s="9">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:20" ht="210">
+      <c r="A48" s="9">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" ht="165">
+      <c r="A49" s="9">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" ht="180">
+      <c r="A50" s="9">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" ht="195">
+      <c r="A51" s="9">
+        <v>49</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" ht="210">
+      <c r="A52" s="9">
+        <v>50</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" ht="90">
+      <c r="A53" s="9">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" ht="90">
+      <c r="A54" s="9">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>15</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+    </row>
+    <row r="55" spans="1:12" ht="105">
+      <c r="A55" s="9">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>16</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+    </row>
+    <row r="56" spans="1:12" ht="90">
+      <c r="A56" s="9">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" ht="90">
+      <c r="A57" s="9">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>18</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+    </row>
+    <row r="58" spans="1:12" ht="90">
+      <c r="A58" s="9">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>19</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" ht="90">
+      <c r="A59" s="9">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+    </row>
+    <row r="60" spans="1:12" ht="90">
+      <c r="A60" s="9">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>21</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="1:12" ht="90">
+      <c r="A61" s="9">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>22</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="9"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="9"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="9"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="9"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2866,14 +4846,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
@@ -2946,368 +4926,488 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="165">
+    <row r="3" spans="1:16" ht="150">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:16" ht="165">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+    <row r="5" spans="1:16" ht="210">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:16" ht="210">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+    <row r="7" spans="1:16" ht="195">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+    <row r="8" spans="1:16" ht="225">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
